--- a/others/random.xlsx
+++ b/others/random.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitworkspace\gyx9208.github.io\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace0\gyx9208.github.io\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="lootoutput" localSheetId="0">Sheet1!$D$1:$E$17</definedName>
+    <definedName name="lootoutput_1" localSheetId="0">Sheet1!$G$1:$H$5</definedName>
+    <definedName name="lootoutput_2" localSheetId="0">Sheet1!$V$2:$W$10</definedName>
+    <definedName name="lootoutput_3" localSheetId="0">Sheet1!$X$1:$Y$11</definedName>
+    <definedName name="lootoutput_4" localSheetId="0">Sheet1!$T$1:$U$7</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,13 +30,58 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="lootoutput" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\lua\lootoutput.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="lootoutput1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\lua\lootoutput.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="lootoutput2" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\lua\lootoutput.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="lootoutput3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\lua\lootoutput.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="lootoutput4" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="936" sourceFile="D:\lua\lootoutput.txt" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44,6 +96,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -74,6 +133,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -92,7 +154,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -158,7 +220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -171,6 +233,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>uniform</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -395,11 +460,245 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1B91-4F05-9BE3-37ED5FAF9ADB}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>prd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>210885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>233426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>108945</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18337</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>hkmm</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$1:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>475403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>469410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -409,11 +708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588390256"/>
-        <c:axId val="588393536"/>
+        <c:axId val="-482024992"/>
+        <c:axId val="-482029344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588390256"/>
+        <c:axId val="-482024992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,15 +766,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588393536"/>
+        <c:crossAx val="-482029344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588393536"/>
+        <c:axId val="-482029344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,10 +828,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588390256"/>
+        <c:crossAx val="-482024992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -570,7 +869,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1142,16 +1441,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209552</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1171,6 +1470,26 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lootoutput_2" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lootoutput_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lootoutput" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lootoutput_4" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="lootoutput_3" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1436,20 +1755,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="20" max="20" width="2.5" customWidth="1"/>
+    <col min="21" max="21" width="7.5" customWidth="1"/>
+    <col min="22" max="22" width="2.5" customWidth="1"/>
+    <col min="23" max="23" width="7.5" customWidth="1"/>
+    <col min="24" max="24" width="3.5" customWidth="1"/>
+    <col min="25" max="25" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -1460,9 +1791,46 @@
         <f>SUM($B$1:B1)/$B$31</f>
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1" s="2">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>24</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUM($E$1:E1)/$E$18</f>
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5">
+        <f>SUM($H$1:H1)/$H$6</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1">
+        <v>57758</v>
+      </c>
+      <c r="V1">
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <v>365135</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>253209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1473,9 +1841,47 @@
         <f>SUM($B$1:B2)/$B$31</f>
         <v>4.5100000000000001E-4</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>912</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUM($E$1:E2)/$E$18</f>
+        <v>9.3599999999999998E-4</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I2" s="5">
+        <f>SUM($H$1:H2)/$H$6</f>
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>533500</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>370004+365135</f>
+        <v>735139</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>350772</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1486,9 +1892,46 @@
         <f>SUM($B$1:B3)/$B$31</f>
         <v>2.594E-3</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9809</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUM($E$1:E3)/$E$18</f>
+        <v>1.0744999999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>54167</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM($H$1:H3)/$H$6</f>
+        <v>5.5187E-2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>344669</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>185498</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>239681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1499,9 +1942,46 @@
         <f>SUM($B$1:B4)/$B$31</f>
         <v>9.8849999999999997E-3</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>47694</v>
+      </c>
+      <c r="F4" s="5">
+        <f>SUM($E$1:E4)/$E$18</f>
+        <v>5.8438999999999998E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>475403</v>
+      </c>
+      <c r="I4" s="5">
+        <f>SUM($H$1:H4)/$H$6</f>
+        <v>0.53059000000000001</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>59265</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>60815</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>108069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1512,9 +1992,46 @@
         <f>SUM($B$1:B5)/$B$31</f>
         <v>2.8281000000000001E-2</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>128065</v>
+      </c>
+      <c r="F5" s="5">
+        <f>SUM($E$1:E5)/$E$18</f>
+        <v>0.186504</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>469410</v>
+      </c>
+      <c r="I5" s="5">
+        <f>SUM($H$1:H5)/$H$6</f>
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>4624</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>15054</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>36183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1525,9 +2042,42 @@
         <f>SUM($B$1:B6)/$B$31</f>
         <v>6.5526000000000001E-2</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>210885</v>
+      </c>
+      <c r="F6" s="5">
+        <f>SUM($E$1:E6)/$E$18</f>
+        <v>0.39738899999999999</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <f>SUM(H1:H5)</f>
+        <v>1000000</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>178</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>2927</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>9594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1538,9 +2088,37 @@
         <f>SUM($B$1:B7)/$B$31</f>
         <v>0.12831000000000001</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>233426</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM($E$1:E7)/$E$18</f>
+        <v>0.63081500000000001</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>501</v>
+      </c>
+      <c r="X7">
+        <v>6</v>
+      </c>
+      <c r="Y7">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1551,9 +2129,31 @@
         <f>SUM($B$1:B8)/$B$31</f>
         <v>0.21782199999999999</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>184549</v>
+      </c>
+      <c r="F8" s="5">
+        <f>SUM($E$1:E8)/$E$18</f>
+        <v>0.81536399999999998</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>60</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1564,9 +2164,31 @@
         <f>SUM($B$1:B9)/$B$31</f>
         <v>0.33113700000000001</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <v>108945</v>
+      </c>
+      <c r="F9" s="5">
+        <f>SUM($E$1:E9)/$E$18</f>
+        <v>0.92430900000000005</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="V9">
+        <v>8</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1577,9 +2199,31 @@
         <f>SUM($B$1:B10)/$B$31</f>
         <v>0.45653199999999999</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50132</v>
+      </c>
+      <c r="F10" s="5">
+        <f>SUM($E$1:E10)/$E$18</f>
+        <v>0.974441</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="V10">
+        <v>9</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1590,9 +2234,24 @@
         <f>SUM($B$1:B11)/$B$31</f>
         <v>0.58189900000000006</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18337</v>
+      </c>
+      <c r="F11" s="5">
+        <f>SUM($E$1:E11)/$E$18</f>
+        <v>0.99277800000000005</v>
+      </c>
+      <c r="X11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1603,9 +2262,18 @@
         <f>SUM($B$1:B12)/$B$31</f>
         <v>0.69614699999999996</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5514</v>
+      </c>
+      <c r="F12" s="5">
+        <f>SUM($E$1:E12)/$E$18</f>
+        <v>0.99829199999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1616,9 +2284,18 @@
         <f>SUM($B$1:B13)/$B$31</f>
         <v>0.79140500000000003</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1366</v>
+      </c>
+      <c r="F13" s="5">
+        <f>SUM($E$1:E13)/$E$18</f>
+        <v>0.99965800000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1629,9 +2306,18 @@
         <f>SUM($B$1:B14)/$B$31</f>
         <v>0.864784</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>283</v>
+      </c>
+      <c r="F14" s="5">
+        <f>SUM($E$1:E14)/$E$18</f>
+        <v>0.99994099999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1642,9 +2328,18 @@
         <f>SUM($B$1:B15)/$B$31</f>
         <v>0.91686500000000004</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5">
+        <f>SUM($E$1:E15)/$E$18</f>
+        <v>0.99998799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1655,9 +2350,18 @@
         <f>SUM($B$1:B16)/$B$31</f>
         <v>0.95171600000000001</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <f>SUM($E$1:E16)/$E$18</f>
+        <v>0.99999800000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1668,9 +2372,18 @@
         <f>SUM($B$1:B17)/$B$31</f>
         <v>0.97342399999999996</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5">
+        <f>SUM($E$1:E17)/$E$18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1682,8 +2395,12 @@
         <v>0.98607500000000003</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <f>SUM(E1:E17)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1695,8 +2412,9 @@
         <v>0.99311499999999997</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1708,8 +2426,9 @@
         <v>0.996695</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1722,7 +2441,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1735,7 +2454,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1748,7 +2467,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1761,7 +2480,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1774,7 +2493,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1787,7 +2506,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1800,7 +2519,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1813,7 +2532,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1826,7 +2545,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1839,7 +2558,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <f>SUM(B1:B30)</f>
@@ -1848,7 +2567,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1860,13 +2579,17 @@
       <c r="C33" s="3"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="G1:H5">
+    <sortCondition ref="G1:G5"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
